--- a/public/category_list_templated.xlsx
+++ b/public/category_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DDEE1-CD08-4EC3-AF88-016A2EFD862E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A1005-FB78-4352-992A-FC30D563BD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94540DE-DA0F-42F5-B4E3-A283052BE629}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>

--- a/public/category_list_templated.xlsx
+++ b/public/category_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A1005-FB78-4352-992A-FC30D563BD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB329096-8A2C-4E13-8CFD-C681FEED88A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94540DE-DA0F-42F5-B4E3-A283052BE629}"/>
   </bookViews>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -379,15 +388,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DDF01C-777D-41FE-8C24-8F71CC4C91B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/public/category_list_templated.xlsx
+++ b/public/category_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB329096-8A2C-4E13-8CFD-C681FEED88A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F76CCA2-0B44-4687-8F77-9A9A765F27CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94540DE-DA0F-42F5-B4E3-A283052BE629}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -388,11 +382,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DDF01C-777D-41FE-8C24-8F71CC4C91B4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -404,22 +396,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>203</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
